--- a/MobileFramework/src/test/resources/testData/testData.xlsx
+++ b/MobileFramework/src/test/resources/testData/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\MobileFramework\MobileFramework\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213F4697-9B07-4EFC-B94C-5089DB8EE129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030BADB-7CB3-4D8D-A47B-94AC378CA5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1644" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{22DAB91F-8967-49C1-9797-DB0628C09BF7}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
